--- a/pecuniary.xlsx
+++ b/pecuniary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthias\Documents\Misc.Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthias\Documents\Programming\GitHub\MiscRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>After Spending</t>
   </si>
   <si>
-    <t>Total:</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
@@ -78,10 +74,13 @@
     <t>Bike shop repairs</t>
   </si>
   <si>
-    <t>Ski Pass</t>
-  </si>
-  <si>
     <t>Purchases:</t>
+  </si>
+  <si>
+    <t>Check 6/30/16</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -462,7 +461,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,56 +471,64 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>H2*0.1</f>
-        <v>96.741000000000014</v>
+        <v>122.33800000000002</v>
       </c>
       <c r="B2" s="3">
-        <f>H2*0.35</f>
-        <v>338.59350000000001</v>
+        <f>H2*0.25</f>
+        <v>305.84500000000003</v>
       </c>
       <c r="C2" s="3">
         <f>H2*0.1</f>
-        <v>96.741000000000014</v>
+        <v>122.33800000000002</v>
       </c>
       <c r="D2" s="3">
         <f>H2 * 0.35</f>
-        <v>338.59350000000001</v>
+        <v>428.18299999999999</v>
       </c>
       <c r="E2" s="3">
         <f xml:space="preserve"> H2*0.1</f>
-        <v>96.741000000000014</v>
+        <v>122.33800000000002</v>
+      </c>
+      <c r="F2" s="3">
+        <f>H2*0.1</f>
+        <v>122.33800000000002</v>
       </c>
       <c r="H2" s="3">
         <f>SUMPRODUCT(H7:H53,MOD(ROW(H7:H53)+1,2))</f>
-        <v>967.41000000000008</v>
+        <v>1223.3800000000001</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -540,11 +547,14 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -562,15 +572,19 @@
       </c>
       <c r="D4" s="4">
         <f>SUMPRODUCT(D7:D53,MOD(ROW(D7:D53)+1,2))</f>
-        <v>140</v>
+        <v>141.18</v>
       </c>
       <c r="E4">
         <f>SUMPRODUCT(E7:E53,MOD(ROW(E7:E53)+1,2))</f>
         <v>0</v>
       </c>
+      <c r="F4">
+        <f>SUMPRODUCT(F7:F53,MOD(ROW(F7:F53)+1,2))</f>
+        <v>0</v>
+      </c>
       <c r="H4">
         <f xml:space="preserve"> SUM(A4:G4)</f>
-        <v>304.57</v>
+        <v>305.75</v>
       </c>
       <c r="L4">
         <v>2336</v>
@@ -579,61 +593,65 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>A2-A4</f>
-        <v>64.161000000000016</v>
+        <v>89.758000000000024</v>
       </c>
       <c r="B5" s="4">
         <f>B2-B4</f>
-        <v>206.6035</v>
+        <v>173.85500000000002</v>
       </c>
       <c r="C5" s="4">
         <f>C2-C4</f>
-        <v>96.741000000000014</v>
+        <v>122.33800000000002</v>
       </c>
       <c r="D5" s="4">
         <f>D2-D4</f>
-        <v>198.59350000000001</v>
+        <v>287.00299999999999</v>
       </c>
       <c r="E5" s="4">
         <f>E2-E4</f>
-        <v>96.741000000000014</v>
+        <v>122.33800000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <f>F2-F4</f>
+        <v>122.33800000000002</v>
       </c>
       <c r="H5" s="7">
         <f>H2 - H4</f>
-        <v>662.84000000000015</v>
+        <v>917.63000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -644,18 +662,15 @@
         <v>131.99</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>141.18</v>
       </c>
       <c r="H8">
         <v>719.85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -663,6 +678,16 @@
         <v>247.56</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>255.97</v>
+      </c>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
@@ -675,24 +700,18 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B13-SUM(B14:B25)</f>
-        <v>0</v>
-      </c>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
